--- a/TestResource/DataTest/Excel_Script/Fasttrack_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/Fasttrack_Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niran.ler/Desktop/ILP/TestResource/DataTest/Excel_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5A511-6363-0641-A8D4-29ECEF4B6CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F52700-8F52-F44A-9BCC-02BD828F5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quotation" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Payment" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quotation!$A$1:$U$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quotation!$A$1:$Q$5</definedName>
     <definedName name="Department">#REF!</definedName>
     <definedName name="Position">#REF!</definedName>
     <definedName name="PositionIT">#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="215">
   <si>
     <t xml:space="preserve"> TestResult</t>
   </si>
@@ -48,9 +48,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>AF05</t>
-  </si>
-  <si>
     <t>00020014</t>
   </si>
   <si>
@@ -63,24 +60,9 @@
     <t>ชำระรายเดือน</t>
   </si>
   <si>
-    <t>Basiclist</t>
-  </si>
-  <si>
-    <t>สะสมทรัพย์</t>
-  </si>
-  <si>
-    <t>SelectBasiclist</t>
-  </si>
-  <si>
     <t>10EN10</t>
   </si>
   <si>
-    <t>Suminsured</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>#Ab123436</t>
   </si>
   <si>
@@ -111,9 +93,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>200000</t>
-  </si>
-  <si>
     <t>ชำระรายปี</t>
   </si>
   <si>
@@ -123,18 +102,9 @@
     <t>CA11</t>
   </si>
   <si>
-    <t>90LT4N</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t>ช</t>
-  </si>
-  <si>
-    <t>20EN6N</t>
-  </si>
-  <si>
     <t>TS_002_001</t>
   </si>
   <si>
@@ -171,6 +141,9 @@
     <t>6218157114079</t>
   </si>
   <si>
+    <t>6702640324279</t>
+  </si>
+  <si>
     <t>นาย</t>
   </si>
   <si>
@@ -213,6 +186,9 @@
     <t>Product</t>
   </si>
   <si>
+    <t>15EN15</t>
+  </si>
+  <si>
     <t>SumInsure</t>
   </si>
   <si>
@@ -372,9 +348,6 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -654,19 +627,52 @@
     <t>URP2</t>
   </si>
   <si>
-    <t>7702254374185</t>
-  </si>
-  <si>
-    <t>1406825621828</t>
-  </si>
-  <si>
-    <t>TH1341277245</t>
-  </si>
-  <si>
-    <t>สมศักดิ์</t>
-  </si>
-  <si>
-    <t>สวยเลิศ</t>
+    <t>Insured.SelectBasiclist</t>
+  </si>
+  <si>
+    <t>Insured.Contract</t>
+  </si>
+  <si>
+    <t>Insured.Suminsured</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo1</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo2</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo3</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo4</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo5</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo6</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo7</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo8</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo9</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo10</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo11</t>
+  </si>
+  <si>
+    <t>Quiz.QuizFromNo12</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +802,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -898,8 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +936,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1209,15 +1225,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F47527-0F2F-BC49-8837-B7E95855D685}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,86 +1243,122 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P1" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>4</v>
@@ -1315,76 +1367,112 @@
         <v>5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>14</v>
+        <v>197</v>
+      </c>
+      <c r="T2" s="22">
+        <v>3000</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="V2" s="21">
+        <v>4</v>
+      </c>
+      <c r="W2" s="21">
+        <v>1</v>
+      </c>
+      <c r="X2" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K3" s="21">
         <v>0</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>4</v>
@@ -1393,61 +1481,97 @@
         <v>16</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="T3" s="22">
+        <v>3000</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="L4" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>4</v>
@@ -1456,85 +1580,157 @@
         <v>16</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="T4" s="22">
+        <v>3000</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>34</v>
+        <v>198</v>
+      </c>
+      <c r="T5" s="22">
+        <v>3000</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1553,71 +1749,149 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S6" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="22">
+        <v>3000</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K7" s="21">
         <v>30</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>34</v>
+        <v>198</v>
+      </c>
+      <c r="T7" s="22">
+        <v>3000</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>114</v>
+        <v>45</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1631,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E7596-FAFB-3C47-BEDF-C5CDF271C49C}">
   <dimension ref="A1:BX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1653,325 +1927,325 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="K1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="BS1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="BT1" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" s="28" t="s">
+      <c r="BW1" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="BO1" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP1" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ1" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR1" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS1" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT1" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU1" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV1" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="BW1" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="BX1" s="32" t="s">
-        <v>8</v>
+      <c r="BX1" s="30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>10110</v>
+        <v>10150</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="R2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U2">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AC2">
         <v>400000</v>
       </c>
       <c r="AD2" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AG2">
         <v>1</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="17">
         <v>4</v>
@@ -1998,16 +2272,16 @@
       <c r="AZ2" s="16"/>
       <c r="BA2" s="16"/>
       <c r="BB2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BF2" s="13">
         <v>165</v>
@@ -2016,10 +2290,10 @@
         <v>56</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BJ2" s="13">
         <v>1</v>
@@ -2028,16 +2302,16 @@
         <v>3</v>
       </c>
       <c r="BL2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BN2" s="13">
         <v>90</v>
       </c>
       <c r="BO2" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -2045,94 +2319,94 @@
     </row>
     <row r="3" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N3">
         <v>15</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P3">
-        <v>10110</v>
+        <v>10160</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="S3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U3">
-        <v>600000</v>
+        <v>60000</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="X3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC3">
         <v>600000</v>
       </c>
       <c r="AD3" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2158,16 +2432,16 @@
       <c r="AZ3" s="16"/>
       <c r="BA3" s="16"/>
       <c r="BB3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BC3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BD3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BE3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BF3" s="13">
         <v>165</v>
@@ -2176,10 +2450,10 @@
         <v>56</v>
       </c>
       <c r="BH3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BI3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BJ3" s="13">
         <v>1</v>
@@ -2188,40 +2462,40 @@
         <v>3</v>
       </c>
       <c r="BL3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BM3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BN3" s="13">
         <v>90</v>
       </c>
       <c r="BO3" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BP3" s="13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="BQ3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR3" s="26" t="s">
-        <v>49</v>
+        <v>109</v>
+      </c>
+      <c r="BR3" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="BS3" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="BT3" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="BU3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV3" s="26" t="s">
-        <v>49</v>
+        <v>110</v>
+      </c>
+      <c r="BV3" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="BW3" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="BX3">
         <v>1</v>
@@ -2229,93 +2503,93 @@
     </row>
     <row r="4" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>10150</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="R4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="S4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U4">
-        <v>800000</v>
+        <v>80000</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AC4">
         <v>400000</v>
       </c>
       <c r="AD4" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AG4">
         <v>2</v>
       </c>
       <c r="AH4" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI4" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AJ4" s="17">
         <v>2</v>
@@ -2327,10 +2601,10 @@
         <v>50</v>
       </c>
       <c r="AM4" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AN4" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AO4" s="17">
         <v>2</v>
@@ -2352,16 +2626,16 @@
       <c r="AZ4" s="16"/>
       <c r="BA4" s="16"/>
       <c r="BB4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BC4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BD4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BE4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BF4" s="13">
         <v>165</v>
@@ -2370,10 +2644,10 @@
         <v>56</v>
       </c>
       <c r="BH4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BI4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BJ4" s="13">
         <v>1</v>
@@ -2382,55 +2656,55 @@
         <v>3</v>
       </c>
       <c r="BL4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BM4" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BN4" s="13">
         <v>90</v>
       </c>
       <c r="BO4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="26"/>
-      <c r="BR4" s="26"/>
-      <c r="BS4" s="26"/>
-      <c r="BT4" s="26"/>
-      <c r="BU4" s="26"/>
-      <c r="BV4" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="24"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="24"/>
+      <c r="BT4" s="24"/>
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="24"/>
     </row>
     <row r="5" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="BB5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BC5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BD5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BE5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BF5" s="13">
         <v>165</v>
@@ -2439,10 +2713,10 @@
         <v>56</v>
       </c>
       <c r="BH5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BI5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BJ5" s="13">
         <v>1</v>
@@ -2451,43 +2725,43 @@
         <v>3</v>
       </c>
       <c r="BL5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BM5" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BN5" s="13">
         <v>90</v>
       </c>
       <c r="BO5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BP5" s="26"/>
-      <c r="BQ5" s="26"/>
-      <c r="BR5" s="26"/>
-      <c r="BS5" s="26"/>
-      <c r="BT5" s="26"/>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="BP5" s="24"/>
+      <c r="BQ5" s="24"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="24"/>
+      <c r="BT5" s="24"/>
+      <c r="BU5" s="24"/>
+      <c r="BV5" s="24"/>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="BJ6" s="13"/>
       <c r="BK6" s="13"/>
@@ -2495,41 +2769,41 @@
       <c r="BM6" s="13"/>
       <c r="BN6" s="13"/>
       <c r="BO6" s="13"/>
-      <c r="BP6" s="26"/>
-      <c r="BQ6" s="26"/>
-      <c r="BR6" s="26"/>
-      <c r="BS6" s="26"/>
-      <c r="BT6" s="26"/>
-      <c r="BU6" s="26"/>
-      <c r="BV6" s="26"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="24"/>
     </row>
     <row r="7" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="BB7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BC7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BD7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BE7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BF7" s="13">
         <v>165</v>
@@ -2538,10 +2812,10 @@
         <v>56</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BI7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BJ7" s="13">
         <v>1</v>
@@ -2550,24 +2824,24 @@
         <v>3</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BM7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BN7" s="13">
         <v>90</v>
       </c>
       <c r="BO7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="26"/>
-      <c r="BT7" s="26"/>
-      <c r="BU7" s="26"/>
-      <c r="BV7" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="BP7" s="24"/>
+      <c r="BQ7" s="24"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="24"/>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="BJ8" s="13"/>
@@ -2781,79 +3055,79 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="Q1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="S1" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>194</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -2862,57 +3136,57 @@
         <v>2024</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -2921,98 +3195,98 @@
         <v>2024</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="T4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/TestResource/DataTest/Excel_Script/Fasttrack_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/Fasttrack_Script.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niran.ler/Desktop/ILP/TestResource/DataTest/Excel_Script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niran.ler/Desktop/fasttack-automate-ilp/TestResource/DataTest/Excel_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F52700-8F52-F44A-9BCC-02BD828F5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E80866-53FD-3C40-B8D0-695B7B8A91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quotation" sheetId="5" r:id="rId1"/>
-    <sheet name="Application" sheetId="7" r:id="rId2"/>
-    <sheet name="Payment" sheetId="8" r:id="rId3"/>
+    <sheet name="List" sheetId="9" r:id="rId2"/>
+    <sheet name="Application" sheetId="7" r:id="rId3"/>
+    <sheet name="Payment" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quotation!$A$1:$Q$5</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="264">
   <si>
     <t xml:space="preserve"> TestResult</t>
   </si>
@@ -636,50 +637,197 @@
     <t>Insured.Suminsured</t>
   </si>
   <si>
-    <t>Quiz.QuizFromNo</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo1</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo2</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo3</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo4</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo5</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo6</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo7</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo8</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo9</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo10</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo11</t>
-  </si>
-  <si>
-    <t>Quiz.QuizFromNo12</t>
+    <t>Suitablitytest.Choice</t>
+  </si>
+  <si>
+    <t>Investment.Choice</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Investment.Fund</t>
+  </si>
+  <si>
+    <t>SCBSFFPLUS-I,SCBFP</t>
+  </si>
+  <si>
+    <t>SCBFP</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer1</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer2</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer3</t>
+  </si>
+  <si>
+    <t>มากกว่า 55 ปี</t>
+  </si>
+  <si>
+    <t>45 - 55 ปี</t>
+  </si>
+  <si>
+    <t>35 - 44 ปี</t>
+  </si>
+  <si>
+    <t>น้อยกว่า 35 ปี</t>
+  </si>
+  <si>
+    <t>มากกว่าร้อยละ 75 ของรายได้ทั้งหมด</t>
+  </si>
+  <si>
+    <t>ระหว่างร้อยละ 50 ถึงร้อยละ 75 ของรายได้ทั้งหมด</t>
+  </si>
+  <si>
+    <t>ระหว่างร้อยละ 25 ถึงร้อยละ 50 ของรายได้ทั้งหมด</t>
+  </si>
+  <si>
+    <t>น้อยกว่าร้อยละ 25 ของรายได้ทั้งหมด</t>
+  </si>
+  <si>
+    <t>มีทรัพย์สินน้อยกว่าหนี้สิน</t>
+  </si>
+  <si>
+    <t>มีทรัพย์สินเท่ากับหนี้สิน</t>
+  </si>
+  <si>
+    <t>มีทรัพย์สินมากกว่าหนี้สิน</t>
+  </si>
+  <si>
+    <t>มีความมั่นใจว่ามีเงินออมหรือเงินลงทุนเพียงพอสําหรับการใช้ชีวิตหลังเกษียณอายุแล้ว</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer4</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer5</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer6</t>
+  </si>
+  <si>
+    <t>เงินฝากธนาคาร</t>
+  </si>
+  <si>
+    <t>พันธบัตรรัฐบาล หรือกองทุนรวมพันธบัตรรัฐบาล</t>
+  </si>
+  <si>
+    <t>หุ้นกู้ หรือกองทุนรวมตราสารหนี้</t>
+  </si>
+  <si>
+    <t>หุ้นสามัญ หรือกองทุนรวมหุ้น หรือสินทรัพย์อื่นที่มีความเสี่ยงสูง</t>
+  </si>
+  <si>
+    <t>ไม่เกิน 1 ปี</t>
+  </si>
+  <si>
+    <t>1 ถึง 3 ปี</t>
+  </si>
+  <si>
+    <t>3 ถึง 5 ปี</t>
+  </si>
+  <si>
+    <t>มากกว่า 5 ปี</t>
+  </si>
+  <si>
+    <t>เน้นเงินต้นต้องปลอดภัยและได้รับผลตอบแทนสม่ำเสมอ แต่ต่ำได้</t>
+  </si>
+  <si>
+    <t>เน้นโอกาสได้รับผลตอบแทนที่สม่ำเสมอ แต่อาจเสี่ยงที่จะสูญเสียเงินต้นได้บ้าง</t>
+  </si>
+  <si>
+    <t>เน้นโอกาสได้รับผลตอบแทนที่สูงขึ้น แต่อาจเสี่ยงที่จะสูญเสียเงินต้นได้มากขึ้น</t>
+  </si>
+  <si>
+    <t>เน้นผลตอบแทนสูงสุดในระยะยาว แต่อาจเสี่ยงที่จะสูญเงินต้นส่วนใหญ่ได้</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer7</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer8</t>
+  </si>
+  <si>
+    <t>กลุ่มการลงทุนที่ 1 มีโอกาสได้รับผลตอบแทน 2.5% โดยไม่ขาดทุนเลย</t>
+  </si>
+  <si>
+    <t>กลุ่มการลงทุนที่ 2 มีโอกาสได้รับผลตอบแทนสูงสุด 7% แต่อาจมีผลขาดทุนได้ถึง 1%</t>
+  </si>
+  <si>
+    <t>กลุ่มการลงทุนที่ 3 มีโอกาสได้รับผลตอบแทนสูงสุด 15% แต่อาจมีผลขาดทุนได้ถึง 5%</t>
+  </si>
+  <si>
+    <t>กลุ่มการลงทุนที่ 4 มีโอกาสได้รับผลตอบแทนสูงสุด 25% แต่อาจมีผลขาดทุนได้ถึง 15%</t>
+  </si>
+  <si>
+    <t>กังวลและตื่นตระหนกกลัวขาดทุน</t>
+  </si>
+  <si>
+    <t>เข้าใจและรับความผันผวนได้ในระดับหนึ่ง</t>
+  </si>
+  <si>
+    <t>ไม่กังวลกับโอกาสขาดทุนสูง และหวังกับผลตอบแทนที่อาจจะได้รับสูงขึ้น</t>
+  </si>
+  <si>
+    <t>ไม่สบายใจแต่พอเข้าใจได้บ้าง</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer9</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer10</t>
+  </si>
+  <si>
+    <t>5% หรือน้อยกว่า</t>
+  </si>
+  <si>
+    <t>มากกว่า 5%-10%</t>
+  </si>
+  <si>
+    <t>มากกว่า 10%-20%</t>
+  </si>
+  <si>
+    <t>มากกว่า 20% ขึ้นไป</t>
+  </si>
+  <si>
+    <t>ตกใจ และต้องการขายการลงทุนที่เหลือทิ้ง</t>
+  </si>
+  <si>
+    <t>กังวลใจ และจะปรับเปลี่ยนการลงทุนบางส่วนไปในทรัพย์สินที่เสี่ยงน้อยลง</t>
+  </si>
+  <si>
+    <t>อดทนถือต่อไปได้ และรอผลตอบแทนปรับตัวกลับมา</t>
+  </si>
+  <si>
+    <t>ยังมั่นใจ เพราะเข้าใจว่าต้องลงทุนระยะยาวและจะเพิ่มเงินลงทุนในแบบเดิมเพื่อเฉลี่ยต้นทุน</t>
+  </si>
+  <si>
+    <t>ไม่ได้</t>
+  </si>
+  <si>
+    <t>ได้บ้าง</t>
+  </si>
+  <si>
+    <t>ได้</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer11</t>
+  </si>
+  <si>
+    <t>Suitablitytest.Answer12</t>
+  </si>
+  <si>
+    <t>00020016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,8 +878,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +964,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -853,7 +1013,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,9 +1100,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1225,15 +1386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F47527-0F2F-BC49-8837-B7E95855D685}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,47 +1455,53 @@
       <c r="T1" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="19" t="s">
         <v>202</v>
       </c>
       <c r="V1" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="X1" s="34" t="s">
+      <c r="AI1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="Y1" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD1" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
         <v>28</v>
@@ -1391,49 +1558,55 @@
         <v>197</v>
       </c>
       <c r="T2" s="22">
-        <v>3000</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="21">
-        <v>4</v>
-      </c>
-      <c r="W2" s="21">
-        <v>1</v>
-      </c>
-      <c r="X2" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="21">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="21">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="21">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="21">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="21">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21" t="s">
         <v>29</v>
@@ -1442,7 +1615,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>11</v>
@@ -1490,49 +1663,55 @@
         <v>198</v>
       </c>
       <c r="T3" s="22">
-        <v>3000</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
         <v>30</v>
@@ -1589,49 +1768,55 @@
         <v>197</v>
       </c>
       <c r="T4" s="22">
-        <v>3000</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG4" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
         <v>31</v>
@@ -1688,49 +1873,55 @@
         <v>198</v>
       </c>
       <c r="T5" s="22">
-        <v>3000</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI5" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1753,49 +1944,55 @@
         <v>197</v>
       </c>
       <c r="T6" s="22">
-        <v>3000</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG6" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI6" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21" t="s">
         <v>102</v>
@@ -1852,61 +2049,325 @@
         <v>198</v>
       </c>
       <c r="T7" s="22">
-        <v>3000</v>
-      </c>
-      <c r="U7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG7" s="23" t="s">
-        <v>14</v>
+        <v>50000</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A0C00F4-3D07-BD47-AE0E-40B03465D095}">
+          <x14:formula1>
+            <xm:f>List!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>V2:V7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB468BDC-847B-CD48-AEDF-4A98E57A19DD}">
+          <x14:formula1>
+            <xm:f>List!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7620ECE6-A277-D04D-A826-5EAAA1E954FF}">
+          <x14:formula1>
+            <xm:f>List!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2:X7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0EF573AA-4E4B-9145-844A-F608C28A6DDD}">
+          <x14:formula1>
+            <xm:f>List!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A379BE36-4714-294C-8290-4F19D70409DF}">
+          <x14:formula1>
+            <xm:f>List!$E$1:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24DF4291-20FF-9A45-A9ED-B93112183FB8}">
+          <x14:formula1>
+            <xm:f>List!$F$1:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA2:AA7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{674A608A-018C-F34B-989E-6238B530B76F}">
+          <x14:formula1>
+            <xm:f>List!$G$1:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB2:AB7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F248D6E4-53D6-9F45-AB51-BECA6A081852}">
+          <x14:formula1>
+            <xm:f>List!$H$1:$H$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC2:AC7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{53674D1E-6F28-AA4A-851B-BF7F622CA52D}">
+          <x14:formula1>
+            <xm:f>List!$I$1:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD2:AD7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB65380F-97F4-8441-8559-35F9A05C1987}">
+          <x14:formula1>
+            <xm:f>List!$J$1:$J$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE2:AE7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37079C5D-2776-F24F-9EFC-6783A7ED283C}">
+          <x14:formula1>
+            <xm:f>List!$K$1:$K$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF2:AF7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C113D79-26C2-684B-B782-E2EC02030D0D}">
+          <x14:formula1>
+            <xm:f>List!$L$1:$L$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG2:AG7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFE2502-647A-004B-8159-78A33B68197F}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E7596-FAFB-3C47-BEDF-C5CDF271C49C}">
   <dimension ref="A1:BX29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2322,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -3031,12 +3492,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A5319F-B671-EE48-B235-B00F4E925A74}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3115,7 +3576,7 @@
         <v>162</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
